--- a/XForms/Emergency.xlsx
+++ b/XForms/Emergency.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t xml:space="preserve">Staging area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire_lookout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire lookout parking</t>
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
@@ -380,14 +386,14 @@
   </sheetPr>
   <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.3"/>
   </cols>
   <sheetData>
@@ -782,13 +788,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="I9 A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.67"/>
@@ -871,6 +877,17 @@
       </c>
       <c r="C8" s="0" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -892,22 +909,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="I9 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,7 +933,7 @@
       </c>
       <c r="B2" s="22" t="n">
         <f aca="true">NOW()</f>
-        <v>44391.4477000555</v>
+        <v>44391.4952245146</v>
       </c>
     </row>
   </sheetData>
